--- a/RF_MexStandalone-v0.02-precompiled/randomforest-matlab/RF_Class_C/data/2016_12.xlsx
+++ b/RF_MexStandalone-v0.02-precompiled/randomforest-matlab/RF_Class_C/data/2016_12.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection sqref="A1:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -361,57 +361,1739 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>635333980</v>
+        <v>13439622</v>
       </c>
       <c r="B2">
-        <v>297083785</v>
+        <v>3091276</v>
       </c>
       <c r="C2">
-        <v>141679615</v>
+        <v>2289807</v>
       </c>
       <c r="D2">
-        <v>130143905</v>
+        <v>1831656</v>
       </c>
       <c r="E2">
-        <v>115280370</v>
+        <v>1801184</v>
       </c>
       <c r="F2">
-        <v>79968760</v>
+        <v>1775695</v>
       </c>
       <c r="G2">
-        <v>70457945</v>
+        <v>1100063</v>
       </c>
       <c r="H2">
-        <v>56205570</v>
+        <v>778352</v>
       </c>
       <c r="I2">
-        <v>27251910</v>
+        <v>750600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13439622</v>
+      </c>
+      <c r="B4">
+        <v>3091276</v>
+      </c>
+      <c r="C4">
+        <v>2289807</v>
+      </c>
+      <c r="D4">
+        <v>1831656</v>
+      </c>
+      <c r="E4">
+        <v>1801184</v>
+      </c>
+      <c r="F4">
+        <v>1775695</v>
+      </c>
+      <c r="G4">
+        <v>1100063</v>
+      </c>
+      <c r="H4">
+        <v>778352</v>
+      </c>
+      <c r="I4">
+        <v>750600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13439622</v>
+      </c>
+      <c r="B6">
+        <v>3091276</v>
+      </c>
+      <c r="C6">
+        <v>2289807</v>
+      </c>
+      <c r="D6">
+        <v>1831656</v>
+      </c>
+      <c r="E6">
+        <v>1801184</v>
+      </c>
+      <c r="F6">
+        <v>1775695</v>
+      </c>
+      <c r="G6">
+        <v>1100063</v>
+      </c>
+      <c r="H6">
+        <v>778352</v>
+      </c>
+      <c r="I6">
+        <v>750600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>50868747</v>
+      </c>
+      <c r="B8">
+        <v>12346792</v>
+      </c>
+      <c r="C8">
+        <v>8131132</v>
+      </c>
+      <c r="D8">
+        <v>7110888</v>
+      </c>
+      <c r="E8">
+        <v>6543868</v>
+      </c>
+      <c r="F8">
+        <v>5119479</v>
+      </c>
+      <c r="G8">
+        <v>3093136</v>
+      </c>
+      <c r="H8">
+        <v>2792672</v>
+      </c>
+      <c r="I8">
+        <v>2741796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>85785156</v>
+      </c>
+      <c r="B10">
+        <v>13496245</v>
+      </c>
+      <c r="C10">
+        <v>9857561</v>
+      </c>
+      <c r="D10">
+        <v>7289906</v>
+      </c>
+      <c r="E10">
+        <v>7177597</v>
+      </c>
+      <c r="F10">
+        <v>6695425</v>
+      </c>
+      <c r="G10">
+        <v>6148268</v>
+      </c>
+      <c r="H10">
+        <v>4851625</v>
+      </c>
+      <c r="I10">
+        <v>3746208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>72641718</v>
+      </c>
+      <c r="B12">
+        <v>13394551</v>
+      </c>
+      <c r="C12">
+        <v>11731022</v>
+      </c>
+      <c r="D12">
+        <v>11426820</v>
+      </c>
+      <c r="E12">
+        <v>8081662</v>
+      </c>
+      <c r="F12">
+        <v>6998311</v>
+      </c>
+      <c r="G12">
+        <v>5101894</v>
+      </c>
+      <c r="H12">
+        <v>4080596</v>
+      </c>
+      <c r="I12">
+        <v>3884433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>50868747</v>
+      </c>
+      <c r="B14">
+        <v>12346792</v>
+      </c>
+      <c r="C14">
+        <v>8131132</v>
+      </c>
+      <c r="D14">
+        <v>7110888</v>
+      </c>
+      <c r="E14">
+        <v>6543868</v>
+      </c>
+      <c r="F14">
+        <v>5119479</v>
+      </c>
+      <c r="G14">
+        <v>3093136</v>
+      </c>
+      <c r="H14">
+        <v>2792672</v>
+      </c>
+      <c r="I14">
+        <v>2741796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>85785156</v>
+      </c>
+      <c r="B16">
+        <v>13496245</v>
+      </c>
+      <c r="C16">
+        <v>9857561</v>
+      </c>
+      <c r="D16">
+        <v>7289906</v>
+      </c>
+      <c r="E16">
+        <v>7177597</v>
+      </c>
+      <c r="F16">
+        <v>6695425</v>
+      </c>
+      <c r="G16">
+        <v>6148268</v>
+      </c>
+      <c r="H16">
+        <v>4851625</v>
+      </c>
+      <c r="I16">
+        <v>3746208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>32050415</v>
+      </c>
+      <c r="B18">
+        <v>8288773</v>
+      </c>
+      <c r="C18">
+        <v>4794474</v>
+      </c>
+      <c r="D18">
+        <v>4763546</v>
+      </c>
+      <c r="E18">
+        <v>3969210</v>
+      </c>
+      <c r="F18">
+        <v>3893662</v>
+      </c>
+      <c r="G18">
+        <v>2332761</v>
+      </c>
+      <c r="H18">
+        <v>1807303</v>
+      </c>
+      <c r="I18">
+        <v>1799611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>13439622</v>
+      </c>
+      <c r="B20">
+        <v>3091276</v>
+      </c>
+      <c r="C20">
+        <v>2289807</v>
+      </c>
+      <c r="D20">
+        <v>1831656</v>
+      </c>
+      <c r="E20">
+        <v>1801184</v>
+      </c>
+      <c r="F20">
+        <v>1775695</v>
+      </c>
+      <c r="G20">
+        <v>1100063</v>
+      </c>
+      <c r="H20">
+        <v>778352</v>
+      </c>
+      <c r="I20">
+        <v>750600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>50868747</v>
+      </c>
+      <c r="B22">
+        <v>12346792</v>
+      </c>
+      <c r="C22">
+        <v>8131132</v>
+      </c>
+      <c r="D22">
+        <v>7110888</v>
+      </c>
+      <c r="E22">
+        <v>6543868</v>
+      </c>
+      <c r="F22">
+        <v>5119479</v>
+      </c>
+      <c r="G22">
+        <v>3093136</v>
+      </c>
+      <c r="H22">
+        <v>2792672</v>
+      </c>
+      <c r="I22">
+        <v>2741796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>85785156</v>
+      </c>
+      <c r="B24">
+        <v>13496245</v>
+      </c>
+      <c r="C24">
+        <v>9857561</v>
+      </c>
+      <c r="D24">
+        <v>7289906</v>
+      </c>
+      <c r="E24">
+        <v>7177597</v>
+      </c>
+      <c r="F24">
+        <v>6695425</v>
+      </c>
+      <c r="G24">
+        <v>6148268</v>
+      </c>
+      <c r="H24">
+        <v>4851625</v>
+      </c>
+      <c r="I24">
+        <v>3746208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>85785156</v>
+      </c>
+      <c r="B26">
+        <v>13496245</v>
+      </c>
+      <c r="C26">
+        <v>9857561</v>
+      </c>
+      <c r="D26">
+        <v>7289906</v>
+      </c>
+      <c r="E26">
+        <v>7177597</v>
+      </c>
+      <c r="F26">
+        <v>6695425</v>
+      </c>
+      <c r="G26">
+        <v>6148268</v>
+      </c>
+      <c r="H26">
+        <v>4851625</v>
+      </c>
+      <c r="I26">
+        <v>3746208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>85785156</v>
+      </c>
+      <c r="B28">
+        <v>13496245</v>
+      </c>
+      <c r="C28">
+        <v>9857561</v>
+      </c>
+      <c r="D28">
+        <v>7289906</v>
+      </c>
+      <c r="E28">
+        <v>7177597</v>
+      </c>
+      <c r="F28">
+        <v>6695425</v>
+      </c>
+      <c r="G28">
+        <v>6148268</v>
+      </c>
+      <c r="H28">
+        <v>4851625</v>
+      </c>
+      <c r="I28">
+        <v>3746208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>81728233</v>
+      </c>
+      <c r="B30">
+        <v>21513036</v>
+      </c>
+      <c r="C30">
+        <v>13270397</v>
+      </c>
+      <c r="D30">
+        <v>10645446</v>
+      </c>
+      <c r="E30">
+        <v>10512573</v>
+      </c>
+      <c r="F30">
+        <v>10460601</v>
+      </c>
+      <c r="G30">
+        <v>5902470</v>
+      </c>
+      <c r="H30">
+        <v>5681318</v>
+      </c>
+      <c r="I30">
+        <v>5319444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>81728233</v>
+      </c>
+      <c r="B32">
+        <v>21513036</v>
+      </c>
+      <c r="C32">
+        <v>13270397</v>
+      </c>
+      <c r="D32">
+        <v>10645446</v>
+      </c>
+      <c r="E32">
+        <v>10512573</v>
+      </c>
+      <c r="F32">
+        <v>10460601</v>
+      </c>
+      <c r="G32">
+        <v>5902470</v>
+      </c>
+      <c r="H32">
+        <v>5681318</v>
+      </c>
+      <c r="I32">
+        <v>5319444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>75646551</v>
+      </c>
+      <c r="B34">
+        <v>15202741</v>
+      </c>
+      <c r="C34">
+        <v>12415292</v>
+      </c>
+      <c r="D34">
+        <v>11230446</v>
+      </c>
+      <c r="E34">
+        <v>9579446</v>
+      </c>
+      <c r="F34">
+        <v>8958301</v>
+      </c>
+      <c r="G34">
+        <v>6016023</v>
+      </c>
+      <c r="H34">
+        <v>5323134</v>
+      </c>
+      <c r="I34">
+        <v>4795875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>75646551</v>
+      </c>
+      <c r="B36">
+        <v>15202741</v>
+      </c>
+      <c r="C36">
+        <v>12415292</v>
+      </c>
+      <c r="D36">
+        <v>11230446</v>
+      </c>
+      <c r="E36">
+        <v>9579446</v>
+      </c>
+      <c r="F36">
+        <v>8958301</v>
+      </c>
+      <c r="G36">
+        <v>6016023</v>
+      </c>
+      <c r="H36">
+        <v>5323134</v>
+      </c>
+      <c r="I36">
+        <v>4795875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>81728233</v>
+      </c>
+      <c r="B38">
+        <v>21513036</v>
+      </c>
+      <c r="C38">
+        <v>13270397</v>
+      </c>
+      <c r="D38">
+        <v>10645446</v>
+      </c>
+      <c r="E38">
+        <v>10512573</v>
+      </c>
+      <c r="F38">
+        <v>10460601</v>
+      </c>
+      <c r="G38">
+        <v>5902470</v>
+      </c>
+      <c r="H38">
+        <v>5681318</v>
+      </c>
+      <c r="I38">
+        <v>5319444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>75646551</v>
+      </c>
+      <c r="B40">
+        <v>15202741</v>
+      </c>
+      <c r="C40">
+        <v>12415292</v>
+      </c>
+      <c r="D40">
+        <v>11230446</v>
+      </c>
+      <c r="E40">
+        <v>9579446</v>
+      </c>
+      <c r="F40">
+        <v>8958301</v>
+      </c>
+      <c r="G40">
+        <v>6016023</v>
+      </c>
+      <c r="H40">
+        <v>5323134</v>
+      </c>
+      <c r="I40">
+        <v>4795875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75646551</v>
+      </c>
+      <c r="B42">
+        <v>15202741</v>
+      </c>
+      <c r="C42">
+        <v>12415292</v>
+      </c>
+      <c r="D42">
+        <v>11230446</v>
+      </c>
+      <c r="E42">
+        <v>9579446</v>
+      </c>
+      <c r="F42">
+        <v>8958301</v>
+      </c>
+      <c r="G42">
+        <v>6016023</v>
+      </c>
+      <c r="H42">
+        <v>5323134</v>
+      </c>
+      <c r="I42">
+        <v>4795875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>75646551</v>
+      </c>
+      <c r="B44">
+        <v>15202741</v>
+      </c>
+      <c r="C44">
+        <v>12415292</v>
+      </c>
+      <c r="D44">
+        <v>11230446</v>
+      </c>
+      <c r="E44">
+        <v>9579446</v>
+      </c>
+      <c r="F44">
+        <v>8958301</v>
+      </c>
+      <c r="G44">
+        <v>6016023</v>
+      </c>
+      <c r="H44">
+        <v>5323134</v>
+      </c>
+      <c r="I44">
+        <v>4795875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>81728233</v>
+      </c>
+      <c r="B46">
+        <v>21513036</v>
+      </c>
+      <c r="C46">
+        <v>13270397</v>
+      </c>
+      <c r="D46">
+        <v>10645446</v>
+      </c>
+      <c r="E46">
+        <v>10512573</v>
+      </c>
+      <c r="F46">
+        <v>10460601</v>
+      </c>
+      <c r="G46">
+        <v>5902470</v>
+      </c>
+      <c r="H46">
+        <v>5681318</v>
+      </c>
+      <c r="I46">
+        <v>5319444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>75646551</v>
+      </c>
+      <c r="B48">
+        <v>15202741</v>
+      </c>
+      <c r="C48">
+        <v>12415292</v>
+      </c>
+      <c r="D48">
+        <v>11230446</v>
+      </c>
+      <c r="E48">
+        <v>9579446</v>
+      </c>
+      <c r="F48">
+        <v>8958301</v>
+      </c>
+      <c r="G48">
+        <v>6016023</v>
+      </c>
+      <c r="H48">
+        <v>5323134</v>
+      </c>
+      <c r="I48">
+        <v>4795875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>196741065</v>
+      </c>
+      <c r="B50">
+        <v>44773216</v>
+      </c>
+      <c r="C50">
+        <v>44671027</v>
+      </c>
+      <c r="D50">
+        <v>36571127</v>
+      </c>
+      <c r="E50">
+        <v>36026116</v>
+      </c>
+      <c r="F50">
+        <v>28392136</v>
+      </c>
+      <c r="G50">
+        <v>20894565</v>
+      </c>
+      <c r="H50">
+        <v>19510501</v>
+      </c>
+      <c r="I50">
+        <v>18872019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>75646551</v>
+      </c>
+      <c r="B52">
+        <v>15202741</v>
+      </c>
+      <c r="C52">
+        <v>12415292</v>
+      </c>
+      <c r="D52">
+        <v>11230446</v>
+      </c>
+      <c r="E52">
+        <v>9579446</v>
+      </c>
+      <c r="F52">
+        <v>8958301</v>
+      </c>
+      <c r="G52">
+        <v>6016023</v>
+      </c>
+      <c r="H52">
+        <v>5323134</v>
+      </c>
+      <c r="I52">
+        <v>4795875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>56199628</v>
+      </c>
+      <c r="B54">
+        <v>5492901</v>
+      </c>
+      <c r="C54">
+        <v>5395522</v>
+      </c>
+      <c r="D54">
+        <v>4383300</v>
+      </c>
+      <c r="E54">
+        <v>4264619</v>
+      </c>
+      <c r="F54">
+        <v>3736126</v>
+      </c>
+      <c r="G54">
+        <v>3719703</v>
+      </c>
+      <c r="H54">
+        <v>3147579</v>
+      </c>
+      <c r="I54">
+        <v>2046930</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>949714150</v>
+      </c>
+      <c r="B56">
+        <v>553260730</v>
+      </c>
+      <c r="C56">
+        <v>227631895</v>
+      </c>
+      <c r="D56">
+        <v>203044305</v>
+      </c>
+      <c r="E56">
+        <v>188271355</v>
+      </c>
+      <c r="F56">
+        <v>177514225</v>
+      </c>
+      <c r="G56">
+        <v>117303130</v>
+      </c>
+      <c r="H56">
+        <v>74140510</v>
+      </c>
+      <c r="I56">
+        <v>64520375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>949714150</v>
+      </c>
+      <c r="B58">
+        <v>553260730</v>
+      </c>
+      <c r="C58">
+        <v>227631895</v>
+      </c>
+      <c r="D58">
+        <v>203044305</v>
+      </c>
+      <c r="E58">
+        <v>188271355</v>
+      </c>
+      <c r="F58">
+        <v>177514225</v>
+      </c>
+      <c r="G58">
+        <v>117303130</v>
+      </c>
+      <c r="H58">
+        <v>74140510</v>
+      </c>
+      <c r="I58">
+        <v>64520375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>36949144</v>
+      </c>
+      <c r="B60">
+        <v>6702863</v>
+      </c>
+      <c r="C60">
+        <v>5961466</v>
+      </c>
+      <c r="D60">
+        <v>4736096</v>
+      </c>
+      <c r="E60">
+        <v>4316019</v>
+      </c>
+      <c r="F60">
+        <v>4023187</v>
+      </c>
+      <c r="G60">
+        <v>3356371</v>
+      </c>
+      <c r="H60">
+        <v>3343831</v>
+      </c>
+      <c r="I60">
+        <v>2429178</v>
       </c>
     </row>
   </sheetData>
